--- a/Rsearch_lens.xlsx
+++ b/Rsearch_lens.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C770F4-21BF-4CF9-8B3E-2AFA84489519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16931477-85FD-4D61-B271-EF82BAD3605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8344,8 +8345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N130" sqref="N130"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10697,7 +10698,7 @@
       </c>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>95</v>
       </c>
@@ -10706,7 +10707,7 @@
       </c>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>100</v>
       </c>
@@ -10715,7 +10716,7 @@
       </c>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>105</v>
       </c>
@@ -10724,7 +10725,7 @@
       </c>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>110</v>
       </c>
@@ -10733,7 +10734,7 @@
       </c>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>115</v>
       </c>
@@ -10742,7 +10743,7 @@
       </c>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>120</v>
       </c>
@@ -10751,7 +10752,7 @@
       </c>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>125</v>
       </c>
@@ -10759,8 +10760,9 @@
         <v>4</v>
       </c>
       <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>130</v>
       </c>
@@ -10769,7 +10771,7 @@
       </c>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>135</v>
       </c>
@@ -10778,7 +10780,7 @@
       </c>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>140</v>
       </c>
@@ -10787,7 +10789,7 @@
       </c>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>145</v>
       </c>
@@ -10796,7 +10798,7 @@
       </c>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>150</v>
       </c>
@@ -10805,7 +10807,7 @@
       </c>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -10814,7 +10816,7 @@
       </c>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>160</v>
       </c>
@@ -10823,7 +10825,7 @@
       </c>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>165</v>
       </c>
@@ -10832,7 +10834,7 @@
       </c>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>170</v>
       </c>
